--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H2">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I2">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J2">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>17022.9180489393</v>
+        <v>17293.29906626247</v>
       </c>
       <c r="R2">
-        <v>153206.2624404537</v>
+        <v>155639.6915963622</v>
       </c>
       <c r="S2">
-        <v>0.1814503698201748</v>
+        <v>0.2383941598343015</v>
       </c>
       <c r="T2">
-        <v>0.1814503698201748</v>
+        <v>0.2383941598343015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H3">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I3">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J3">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
-        <v>75.61439747894688</v>
+        <v>92.55825931669355</v>
       </c>
       <c r="R3">
-        <v>680.529577310522</v>
+        <v>833.024333850242</v>
       </c>
       <c r="S3">
-        <v>0.000805987571980323</v>
+        <v>0.001275947890624058</v>
       </c>
       <c r="T3">
-        <v>0.000805987571980323</v>
+        <v>0.001275947890624058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H4">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I4">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J4">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>10101.82428589059</v>
+        <v>5444.995337293928</v>
       </c>
       <c r="R4">
-        <v>90916.41857301533</v>
+        <v>49004.95803564535</v>
       </c>
       <c r="S4">
-        <v>0.1076771765724082</v>
+        <v>0.07506116003442362</v>
       </c>
       <c r="T4">
-        <v>0.1076771765724082</v>
+        <v>0.07506116003442362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H5">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I5">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J5">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>81.03243189816156</v>
+        <v>106.5240842804227</v>
       </c>
       <c r="R5">
-        <v>729.2918870834541</v>
+        <v>958.7167585238042</v>
       </c>
       <c r="S5">
-        <v>0.0008637393831703085</v>
+        <v>0.001468471659273637</v>
       </c>
       <c r="T5">
-        <v>0.0008637393831703084</v>
+        <v>0.001468471659273638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H6">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I6">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J6">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>5907.331922616763</v>
+        <v>5417.462840952771</v>
       </c>
       <c r="R6">
-        <v>53165.98730355087</v>
+        <v>48757.16556857494</v>
       </c>
       <c r="S6">
-        <v>0.06296732199072798</v>
+        <v>0.07468161496854339</v>
       </c>
       <c r="T6">
-        <v>0.06296732199072796</v>
+        <v>0.07468161496854339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H7">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I7">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J7">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>28217.61842829829</v>
+        <v>23418.20036891879</v>
       </c>
       <c r="R7">
-        <v>253958.5658546846</v>
+        <v>210763.8033202692</v>
       </c>
       <c r="S7">
-        <v>0.30077671081653</v>
+        <v>0.3228280607643657</v>
       </c>
       <c r="T7">
-        <v>0.3007767108165299</v>
+        <v>0.3228280607643657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H8">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I8">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J8">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
         <v>125.3403329330809</v>
@@ -948,10 +948,10 @@
         <v>1128.062996397728</v>
       </c>
       <c r="S8">
-        <v>0.001336025333536072</v>
+        <v>0.001727860210387919</v>
       </c>
       <c r="T8">
-        <v>0.001336025333536072</v>
+        <v>0.001727860210387919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H9">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I9">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J9">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>16745.0387947288</v>
+        <v>7373.491392706046</v>
       </c>
       <c r="R9">
-        <v>150705.3491525592</v>
+        <v>66361.42253435441</v>
       </c>
       <c r="S9">
-        <v>0.178488404468706</v>
+        <v>0.1016461508515112</v>
       </c>
       <c r="T9">
-        <v>0.178488404468706</v>
+        <v>0.1016461508515112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H10">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I10">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J10">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>134.3214034776996</v>
+        <v>144.2525419953707</v>
       </c>
       <c r="R10">
-        <v>1208.892631299296</v>
+        <v>1298.272877958336</v>
       </c>
       <c r="S10">
-        <v>0.001431756192782245</v>
+        <v>0.001988571609221644</v>
       </c>
       <c r="T10">
-        <v>0.001431756192782245</v>
+        <v>0.001988571609221644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H11">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I11">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J11">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>9792.142430721042</v>
+        <v>7336.207499476466</v>
       </c>
       <c r="R11">
-        <v>88129.28187648936</v>
+        <v>66025.86749528818</v>
       </c>
       <c r="S11">
-        <v>0.1043762215313531</v>
+        <v>0.1011321793780659</v>
       </c>
       <c r="T11">
-        <v>0.1043762215313531</v>
+        <v>0.1011321793780658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H12">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I12">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J12">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N12">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O12">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P12">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q12">
-        <v>12.66676504786467</v>
+        <v>26.88643329443111</v>
       </c>
       <c r="R12">
-        <v>114.000885430782</v>
+        <v>241.97789964988</v>
       </c>
       <c r="S12">
-        <v>0.0001350173451903283</v>
+        <v>0.0003706388614229971</v>
       </c>
       <c r="T12">
-        <v>0.0001350173451903283</v>
+        <v>0.000370638861422997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H13">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I13">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J13">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q13">
-        <v>0.05626472525733333</v>
+        <v>0.1439032225968889</v>
       </c>
       <c r="R13">
-        <v>0.506382527316</v>
+        <v>1.295129003372</v>
       </c>
       <c r="S13">
-        <v>5.997359075819437E-07</v>
+        <v>1.983756119464842E-06</v>
       </c>
       <c r="T13">
-        <v>5.997359075819437E-07</v>
+        <v>1.983756119464842E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H14">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I14">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J14">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N14">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q14">
-        <v>7.516774410610666</v>
+        <v>8.465504665344445</v>
       </c>
       <c r="R14">
-        <v>67.650969695496</v>
+        <v>76.18954198810002</v>
       </c>
       <c r="S14">
-        <v>8.012266126988244E-05</v>
+        <v>0.0001166999347282045</v>
       </c>
       <c r="T14">
-        <v>8.012266126988244E-05</v>
+        <v>0.0001166999347282045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H15">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I15">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J15">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N15">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O15">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P15">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q15">
-        <v>0.06029628840133334</v>
+        <v>0.1656163277626667</v>
       </c>
       <c r="R15">
-        <v>0.542666595612</v>
+        <v>1.490546949864</v>
       </c>
       <c r="S15">
-        <v>6.427090700755368E-07</v>
+        <v>2.283078848086811E-06</v>
       </c>
       <c r="T15">
-        <v>6.427090700755367E-07</v>
+        <v>2.283078848086812E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H16">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I16">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J16">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N16">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q16">
-        <v>4.395649753374666</v>
+        <v>8.422699031586001</v>
       </c>
       <c r="R16">
-        <v>39.560847780372</v>
+        <v>75.804291284274</v>
       </c>
       <c r="S16">
-        <v>4.685402767356278E-05</v>
+        <v>0.0001161098441354889</v>
       </c>
       <c r="T16">
-        <v>4.685402767356277E-05</v>
+        <v>0.0001161098441354889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H17">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I17">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J17">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N17">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O17">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P17">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q17">
-        <v>2841.760529246767</v>
+        <v>3479.71398220456</v>
       </c>
       <c r="R17">
-        <v>25575.84476322091</v>
+        <v>31317.42583984104</v>
       </c>
       <c r="S17">
-        <v>0.03029084070602872</v>
+        <v>0.04796907102992778</v>
       </c>
       <c r="T17">
-        <v>0.03029084070602871</v>
+        <v>0.04796907102992777</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H18">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I18">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J18">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q18">
-        <v>12.62286580835867</v>
+        <v>18.624339281864</v>
       </c>
       <c r="R18">
-        <v>113.605792275228</v>
+        <v>167.619053536776</v>
       </c>
       <c r="S18">
-        <v>0.0001345494152372916</v>
+        <v>0.0002567430134965297</v>
       </c>
       <c r="T18">
-        <v>0.0001345494152372916</v>
+        <v>0.0002567430134965296</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H19">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I19">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J19">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N19">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q19">
-        <v>1686.371598952685</v>
+        <v>1095.6282162022</v>
       </c>
       <c r="R19">
-        <v>15177.34439057417</v>
+        <v>9860.653945819802</v>
       </c>
       <c r="S19">
-        <v>0.0179753406204802</v>
+        <v>0.01510361713467599</v>
       </c>
       <c r="T19">
-        <v>0.0179753406204802</v>
+        <v>0.01510361713467599</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H20">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I20">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J20">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N20">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O20">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P20">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q20">
-        <v>13.52733802131067</v>
+        <v>21.434507325168</v>
       </c>
       <c r="R20">
-        <v>121.746042191796</v>
+        <v>192.910565926512</v>
       </c>
       <c r="S20">
-        <v>0.0001441903485402889</v>
+        <v>0.0002954821602093523</v>
       </c>
       <c r="T20">
-        <v>0.0001441903485402889</v>
+        <v>0.0002954821602093523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H21">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I21">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J21">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N21">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q21">
-        <v>986.1542329340973</v>
+        <v>1090.088196792588</v>
       </c>
       <c r="R21">
-        <v>8875.388096406876</v>
+        <v>9810.793771133292</v>
       </c>
       <c r="S21">
-        <v>0.01051159676332768</v>
+        <v>0.0150272460346586</v>
       </c>
       <c r="T21">
-        <v>0.01051159676332768</v>
+        <v>0.01502724603465859</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H22">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I22">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J22">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N22">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O22">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P22">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q22">
-        <v>24.37398371362422</v>
+        <v>23.71130804166</v>
       </c>
       <c r="R22">
-        <v>219.365853422618</v>
+        <v>213.40177237494</v>
       </c>
       <c r="S22">
-        <v>0.0002598067115234459</v>
+        <v>0.0003268686522741978</v>
       </c>
       <c r="T22">
-        <v>0.0002598067115234458</v>
+        <v>0.0003268686522741977</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H23">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I23">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J23">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q23">
-        <v>0.1082672246537778</v>
+        <v>0.126909121854</v>
       </c>
       <c r="R23">
-        <v>0.974405021884</v>
+        <v>1.142182096686</v>
       </c>
       <c r="S23">
-        <v>1.154039976950721E-06</v>
+        <v>1.749486512883866E-06</v>
       </c>
       <c r="T23">
-        <v>1.154039976950721E-06</v>
+        <v>1.749486512883865E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H24">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I24">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J24">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N24">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q24">
-        <v>14.46413005774489</v>
+        <v>7.465779735450001</v>
       </c>
       <c r="R24">
-        <v>130.177170519704</v>
+        <v>67.19201761905001</v>
       </c>
       <c r="S24">
-        <v>0.0001541757847015219</v>
+        <v>0.0001029183778480284</v>
       </c>
       <c r="T24">
-        <v>0.0001541757847015219</v>
+        <v>0.0001029183778480284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H25">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I25">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J25">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N25">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O25">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P25">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q25">
-        <v>0.1160249476431111</v>
+        <v>0.146058040548</v>
       </c>
       <c r="R25">
-        <v>1.044224528788</v>
+        <v>1.314522364932</v>
       </c>
       <c r="S25">
-        <v>1.236730952806339E-06</v>
+        <v>2.013461036559185E-06</v>
       </c>
       <c r="T25">
-        <v>1.236730952806339E-06</v>
+        <v>2.013461036559185E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H26">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I26">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J26">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N26">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q26">
-        <v>8.458315528447555</v>
+        <v>7.428029188293001</v>
       </c>
       <c r="R26">
-        <v>76.124839756028</v>
+        <v>66.85226269463701</v>
       </c>
       <c r="S26">
-        <v>9.015871875081765E-05</v>
+        <v>0.0001023979733874165</v>
       </c>
       <c r="T26">
-        <v>9.015871875081764E-05</v>
+        <v>0.0001023979733874165</v>
       </c>
     </row>
   </sheetData>
